--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,57 +540,57 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.105309333333333</v>
+        <v>3.043038666666666</v>
       </c>
       <c r="H2">
-        <v>6.315928</v>
+        <v>9.129116</v>
       </c>
       <c r="I2">
-        <v>0.1253156463506908</v>
+        <v>0.2550160052704314</v>
       </c>
       <c r="J2">
-        <v>0.1253156463506908</v>
+        <v>0.2550160052704314</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.006517333333333333</v>
+        <v>0.02430333333333333</v>
       </c>
       <c r="N2">
-        <v>0.019552</v>
+        <v>0.07291</v>
       </c>
       <c r="O2">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01372100269511111</v>
+        <v>0.07395598306222222</v>
       </c>
       <c r="R2">
-        <v>0.123489024256</v>
+        <v>0.66560384756</v>
       </c>
       <c r="S2">
-        <v>0.0139823635813386</v>
+        <v>0.2550160052704314</v>
       </c>
       <c r="T2">
-        <v>0.0139823635813386</v>
+        <v>0.2550160052704314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -605,60 +602,60 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.105309333333333</v>
+        <v>6.243382666666666</v>
       </c>
       <c r="H3">
-        <v>6.315928</v>
+        <v>18.730148</v>
       </c>
       <c r="I3">
-        <v>0.1253156463506908</v>
+        <v>0.5232146815840615</v>
       </c>
       <c r="J3">
-        <v>0.1253156463506908</v>
+        <v>0.5232146815840614</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05189366666666667</v>
+        <v>0.02430333333333333</v>
       </c>
       <c r="N3">
-        <v>0.155681</v>
+        <v>0.07291</v>
       </c>
       <c r="O3">
-        <v>0.8884228427293945</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8884228427293945</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1092522207742222</v>
+        <v>0.1517350100755555</v>
       </c>
       <c r="R3">
-        <v>0.9832699869680002</v>
+        <v>1.36561509068</v>
       </c>
       <c r="S3">
-        <v>0.1113332827693522</v>
+        <v>0.5232146815840615</v>
       </c>
       <c r="T3">
-        <v>0.1113332827693522</v>
+        <v>0.5232146815840614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,57 +664,57 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.243382666666666</v>
+        <v>0.282636</v>
       </c>
       <c r="H4">
-        <v>18.730148</v>
+        <v>0.847908</v>
       </c>
       <c r="I4">
-        <v>0.3716287777289574</v>
+        <v>0.02368576661714464</v>
       </c>
       <c r="J4">
-        <v>0.3716287777289575</v>
+        <v>0.02368576661714463</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.006517333333333333</v>
+        <v>0.02430333333333333</v>
       </c>
       <c r="N4">
-        <v>0.019552</v>
+        <v>0.07291</v>
       </c>
       <c r="O4">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.04069020596622222</v>
+        <v>0.00686899692</v>
       </c>
       <c r="R4">
-        <v>0.366211853696</v>
+        <v>0.06182097228</v>
       </c>
       <c r="S4">
-        <v>0.04146528257894674</v>
+        <v>0.02368576661714464</v>
       </c>
       <c r="T4">
-        <v>0.04146528257894675</v>
+        <v>0.02368576661714463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,542 +726,108 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.243382666666666</v>
+        <v>2.277769666666666</v>
       </c>
       <c r="H5">
-        <v>18.730148</v>
+        <v>6.833309</v>
       </c>
       <c r="I5">
-        <v>0.3716287777289574</v>
+        <v>0.1908841079419394</v>
       </c>
       <c r="J5">
-        <v>0.3716287777289575</v>
+        <v>0.1908841079419394</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05189366666666667</v>
+        <v>0.02430333333333333</v>
       </c>
       <c r="N5">
-        <v>0.155681</v>
+        <v>0.07291</v>
       </c>
       <c r="O5">
-        <v>0.8884228427293945</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.8884228427293945</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.3239920189764445</v>
+        <v>0.05535739546555555</v>
       </c>
       <c r="R5">
-        <v>2.915928170788</v>
+        <v>0.49821655919</v>
       </c>
       <c r="S5">
-        <v>0.3301634951500106</v>
+        <v>0.1908841079419394</v>
       </c>
       <c r="T5">
-        <v>0.3301634951500107</v>
+        <v>0.1908841079419394</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.324794</v>
+        <v>0.08590900000000001</v>
       </c>
       <c r="H6">
-        <v>0.974382</v>
+        <v>0.257727</v>
       </c>
       <c r="I6">
-        <v>0.01933291673408544</v>
+        <v>0.007199438586423099</v>
       </c>
       <c r="J6">
-        <v>0.01933291673408544</v>
+        <v>0.007199438586423097</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.006517333333333333</v>
+        <v>0.02430333333333333</v>
       </c>
       <c r="N6">
-        <v>0.019552</v>
+        <v>0.07291</v>
       </c>
       <c r="O6">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.002116790762666666</v>
+        <v>0.002087875063333334</v>
       </c>
       <c r="R6">
-        <v>0.019051116864</v>
+        <v>0.01879087557</v>
       </c>
       <c r="S6">
-        <v>0.00215711189093857</v>
+        <v>0.007199438586423099</v>
       </c>
       <c r="T6">
-        <v>0.00215711189093857</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.324794</v>
-      </c>
-      <c r="H7">
-        <v>0.974382</v>
-      </c>
-      <c r="I7">
-        <v>0.01933291673408544</v>
-      </c>
-      <c r="J7">
-        <v>0.01933291673408544</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.05189366666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.155681</v>
-      </c>
-      <c r="O7">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="P7">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="Q7">
-        <v>0.01685475157133333</v>
-      </c>
-      <c r="R7">
-        <v>0.151692764142</v>
-      </c>
-      <c r="S7">
-        <v>0.01717580484314687</v>
-      </c>
-      <c r="T7">
-        <v>0.01717580484314687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7.416383999999998</v>
-      </c>
-      <c r="H8">
-        <v>22.249152</v>
-      </c>
-      <c r="I8">
-        <v>0.4414500709372818</v>
-      </c>
-      <c r="J8">
-        <v>0.4414500709372818</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.006517333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.019552</v>
-      </c>
-      <c r="O8">
-        <v>0.1115771572706054</v>
-      </c>
-      <c r="P8">
-        <v>0.1115771572706054</v>
-      </c>
-      <c r="Q8">
-        <v>0.04833504665599999</v>
-      </c>
-      <c r="R8">
-        <v>0.4350154199039999</v>
-      </c>
-      <c r="S8">
-        <v>0.04925574399208901</v>
-      </c>
-      <c r="T8">
-        <v>0.04925574399208901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.416383999999998</v>
-      </c>
-      <c r="H9">
-        <v>22.249152</v>
-      </c>
-      <c r="I9">
-        <v>0.4414500709372818</v>
-      </c>
-      <c r="J9">
-        <v>0.4414500709372818</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.05189366666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.155681</v>
-      </c>
-      <c r="O9">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="P9">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="Q9">
-        <v>0.3848633591679999</v>
-      </c>
-      <c r="R9">
-        <v>3.463770232512</v>
-      </c>
-      <c r="S9">
-        <v>0.3921943269451927</v>
-      </c>
-      <c r="T9">
-        <v>0.3921943269451928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.04121533333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.123646</v>
-      </c>
-      <c r="I10">
-        <v>0.002453286105965349</v>
-      </c>
-      <c r="J10">
-        <v>0.002453286105965349</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.006517333333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.019552</v>
-      </c>
-      <c r="O10">
-        <v>0.1115771572706054</v>
-      </c>
-      <c r="P10">
-        <v>0.1115771572706054</v>
-      </c>
-      <c r="Q10">
-        <v>0.0002686140657777778</v>
-      </c>
-      <c r="R10">
-        <v>0.002417526592</v>
-      </c>
-      <c r="S10">
-        <v>0.0002737306896750869</v>
-      </c>
-      <c r="T10">
-        <v>0.0002737306896750869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.04121533333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.123646</v>
-      </c>
-      <c r="I11">
-        <v>0.002453286105965349</v>
-      </c>
-      <c r="J11">
-        <v>0.002453286105965349</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.05189366666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.155681</v>
-      </c>
-      <c r="O11">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="P11">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="Q11">
-        <v>0.002138814769555556</v>
-      </c>
-      <c r="R11">
-        <v>0.019249332926</v>
-      </c>
-      <c r="S11">
-        <v>0.002179555416290262</v>
-      </c>
-      <c r="T11">
-        <v>0.002179555416290262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.6689663333333332</v>
-      </c>
-      <c r="H12">
-        <v>2.006899</v>
-      </c>
-      <c r="I12">
-        <v>0.0398193021430192</v>
-      </c>
-      <c r="J12">
-        <v>0.03981930214301921</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.006517333333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.019552</v>
-      </c>
-      <c r="O12">
-        <v>0.1115771572706054</v>
-      </c>
-      <c r="P12">
-        <v>0.1115771572706054</v>
-      </c>
-      <c r="Q12">
-        <v>0.00435987658311111</v>
-      </c>
-      <c r="R12">
-        <v>0.03923888924799999</v>
-      </c>
-      <c r="S12">
-        <v>0.004442924537617408</v>
-      </c>
-      <c r="T12">
-        <v>0.004442924537617409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.6689663333333332</v>
-      </c>
-      <c r="H13">
-        <v>2.006899</v>
-      </c>
-      <c r="I13">
-        <v>0.0398193021430192</v>
-      </c>
-      <c r="J13">
-        <v>0.03981930214301921</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.05189366666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.155681</v>
-      </c>
-      <c r="O13">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="P13">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="Q13">
-        <v>0.03471511591322222</v>
-      </c>
-      <c r="R13">
-        <v>0.312436043219</v>
-      </c>
-      <c r="S13">
-        <v>0.03537637760540179</v>
-      </c>
-      <c r="T13">
-        <v>0.0353763776054018</v>
+        <v>0.007199438586423097</v>
       </c>
     </row>
   </sheetData>
